--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276623</v>
+        <v>373308.7577998814</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179437</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294663</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1455,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,25 +1569,25 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1695,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34.86547882798917</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1804,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.32130452463231</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2327,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>55.6659517772089</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>136.9043953634215</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>69.03881051849277</v>
       </c>
     </row>
     <row r="28">
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>58.39471844666272</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2874,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>62.37800981884457</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>56.17030901074575</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3071,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>11.18709822926787</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>110.2520107319724</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>69.3421217705996</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,10 +3401,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13.56983118520881</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>74.0428859370281</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>234.2693509296718</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>115.7580399383184</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>136.2868555448613</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U2" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W2" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66114634470771</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>25.66114634470771</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T8" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G9" t="n">
-        <v>78.36807964162378</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N9" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O9" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F11" t="n">
-        <v>118.3517937444931</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="G11" t="n">
-        <v>78.36807964162378</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H11" t="n">
-        <v>38.38436553875449</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>90.46354404567346</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U13" t="n">
-        <v>90.46354404567346</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.15042425981653</v>
+        <v>104.756466833843</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T14" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U14" t="n">
-        <v>43.15042425981653</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V14" t="n">
-        <v>43.15042425981653</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W14" t="n">
-        <v>43.15042425981653</v>
+        <v>104.756466833843</v>
       </c>
       <c r="X14" t="n">
-        <v>43.15042425981653</v>
+        <v>104.756466833843</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.15042425981653</v>
+        <v>104.756466833843</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1178524655551</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G15" t="n">
-        <v>83.13413836268582</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H15" t="n">
-        <v>43.15042425981653</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>45.45613755060546</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>42.79483382228227</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>42.79483382228227</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5929,22 +5931,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="24">
@@ -6069,46 +6071,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6178,10 +6180,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
         <v>829.5248650203655</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>551.1830134703307</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>551.1830134703307</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>551.1830134703307</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>551.1830134703307</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>551.1830134703307</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>343.4227147053767</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>242.2808214945596</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>83.04336648910407</v>
       </c>
       <c r="F30" t="n">
         <v>20.03527576299844</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>907.3194696411961</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>907.3194696411961</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>679.0958513775852</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>679.0958513775852</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W30" t="n">
-        <v>435.6470747334852</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6977,10 +6979,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>526.7184526376595</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C36" t="n">
-        <v>526.7184526376595</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="D36" t="n">
-        <v>415.3527852316268</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="E36" t="n">
-        <v>256.1153302261713</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V36" t="n">
-        <v>526.7184526376595</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W36" t="n">
-        <v>526.7184526376595</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X36" t="n">
-        <v>526.7184526376595</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y36" t="n">
-        <v>526.7184526376595</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="37">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.787934186969</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C39" t="n">
-        <v>110.334904905842</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D39" t="n">
-        <v>110.334904905842</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E39" t="n">
-        <v>110.334904905842</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
         <v>110.334904905842</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7369,13 +7371,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.5191881337974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>231.5191881337974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>231.5191881337974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>231.5191881337974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>231.5191881337974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>231.5191881337974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>231.5191881337974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>709.2282658313147</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>470.373726982556</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>470.373726982556</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>378.3761730603275</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>529.119162702065</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.36807964162378</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>78.36807964162378</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>40.77139327069581</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>79.95943146291799</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>119.1474696551402</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U44" t="n">
-        <v>118.3517937444931</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V44" t="n">
-        <v>78.36807964162378</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>78.36807964162378</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X44" t="n">
-        <v>78.36807964162378</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.36807964162378</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>79.95943146291799</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>78.36807964162378</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>177.9663024837473</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8693,19 +8695,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8789,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
         <v>235.7664149699872</v>
@@ -8936,13 +8938,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,16 +10670,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,13 +11147,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N42" t="n">
-        <v>283.6073581860985</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>258.0743794427063</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5389081776</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22550,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>315.8114241890584</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22595,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>188.2303707361422</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22720,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22957,13 +22959,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23066,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>115.0036391131605</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>211.7617759459959</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>62.03280804727645</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>398.3711086526678</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>175.6104107424167</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23343,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2037335653947</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>15.01338019972509</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,25 +23457,25 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23510,13 +23512,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>332.3093398549458</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23583,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>110.2037335653947</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23692,19 +23694,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23829,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,25 +23934,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>285.7325478889088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24020,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>119.0371437604433</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24060,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>123.0222126385783</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24215,19 +24217,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>317.6203761059298</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>36.26901108812089</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>63.26033333140015</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>136.6438852588116</v>
       </c>
     </row>
     <row r="28">
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24689,7 +24691,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>348.4813272950487</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24762,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>82.6912025745393</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>115.5128620930921</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24959,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24999,19 +25001,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>136.2579673353709</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25132,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25236,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>37.19305483266635</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>75.72709062278427</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>152.9633524646585</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,10 +25484,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>63.30063122618253</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25646,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>114.9716177877413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>50.77514371154889</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>11.15821001977744</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>319.8175627926938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7188605532945</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>138.6379206569481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091872</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042948</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.53968261261</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="I2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="I2" t="n">
-        <v>91388.36989223286</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="O2" t="n">
-        <v>90796.17800832074</v>
-      </c>
-      <c r="P2" t="n">
-        <v>65132.5396826126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.63236844941</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26442,7 +26444,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26454,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836433</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.632368449412</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800368</v>
+        <v>8626.86134441715</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488328</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488327</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866135</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866135</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.54779918658</v>
+        <v>14225.15515865641</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.0230888037</v>
+        <v>68187.59005912872</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912879</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="J6" t="n">
-        <v>57830.70615532495</v>
+        <v>56640.67194913785</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912872</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912878</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912872</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="N6" t="n">
+        <v>68187.59005912874</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20807.71184166496</v>
+      </c>
+      <c r="P6" t="n">
         <v>68187.59005912876</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67930.15896609983</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56760.20759488328</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35413,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
       <c r="O36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N42" t="n">
-        <v>152.2656461027651</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>37.98452839772582</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>37.98452839772582</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998814</v>
+        <v>267779.7902310984</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859927</v>
+        <v>5764697.373081759</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>67.4017606263275</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.12502610536669</v>
+        <v>224.0120249334811</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="12">
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>25.06485607370366</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>38.12502610536668</v>
+        <v>124.0051303913026</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,61 +1852,61 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>118.5628686044507</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>21.85442600983729</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>55.6659517772089</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>135.4141600157168</v>
       </c>
     </row>
     <row r="25">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>123.9809112256319</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2800,58 +2800,58 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>62.37800981884457</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,65 +3028,65 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="36">
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>69.3421217705996</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="39">
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>74.0428859370281</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3660,61 +3660,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>115.7580399383184</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>8.901959056055929</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C6" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D6" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E6" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F6" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>87.37278572049297</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>4.284706443124001</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V6" t="n">
-        <v>4.284706443124001</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W6" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X6" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>87.37278572049297</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>42.79483382228227</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>3.530573790338288</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>45.45613755060546</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>138.0185621377561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>93.44061023954541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>48.8626583413347</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>48.8626583413347</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>48.8626583413347</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>48.8626583413347</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8591222504766</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V11" t="n">
-        <v>121.8591222504766</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W11" t="n">
-        <v>121.8591222504766</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X11" t="n">
-        <v>121.8591222504766</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>837.5695896254374</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D14" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E14" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F14" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G14" t="n">
-        <v>104.756466833843</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>166.4370741486873</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>166.4370741486873</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>121.8591222504766</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>104.756466833843</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D15" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E15" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="F15" t="n">
-        <v>138.0185621377561</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="19">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,25 +5855,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5937,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>509.4769954460863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>266.0282188019862</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>266.0282188019862</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X23" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
         <v>725.4530095217538</v>
@@ -6092,25 +6092,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.5143867724671</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.5143867724671</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>318.9674160535941</v>
       </c>
     </row>
     <row r="28">
@@ -6411,7 +6411,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>391.2152311558108</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>391.2152311558108</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>242.2808214945596</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>83.04336648910407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N30" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N30" t="n">
-        <v>851.8101010141643</v>
-      </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>391.2152311558108</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>391.2152311558108</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>391.2152311558108</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6651,13 +6651,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C32" t="n">
+        <v>485.167420504237</v>
+      </c>
+      <c r="D32" t="n">
+        <v>485.167420504237</v>
+      </c>
+      <c r="E32" t="n">
+        <v>485.167420504237</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,19 +6809,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6882,19 +6882,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>432.4774131586771</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>432.4774131586771</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>432.4774131586771</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7122,13 +7122,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7162,7 +7162,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>298.4948343740486</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7444,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>955.0652776762363</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="V42" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W42" t="n">
-        <v>518.4217842253022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X42" t="n">
-        <v>518.4217842253022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y42" t="n">
-        <v>310.6614854603483</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W44" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X44" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
         <v>19.28114311021272</v>
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11156,7 +11156,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11381,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,10 +11393,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>315.8114241890584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>184.2932225345921</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>187.8163559756081</v>
+        <v>1.929357147493732</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>62.03280804727645</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>170.365719729939</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3711086526678</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="12">
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>51.27160674604839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>175.099872621118</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23463,19 +23463,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>332.3093398549458</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23585,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>106.9441862880172</v>
+        <v>21.06408200208125</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>87.21011659902676</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>317.6203761059298</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>150.1070334262686</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>70.26853576158751</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24460,10 +24460,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>33.66416922976909</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>136.6438852588116</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24651,10 +24651,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24764,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>82.6912025745393</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,10 +24970,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25049,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25201,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="36">
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>75.72709062278427</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="39">
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>63.30063122618253</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.77514371154889</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>191.2627696387657</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="45">
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770131</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
@@ -26343,19 +26343,19 @@
         <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="O2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.86134441715</v>
+        <v>-58427.45209245947</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.97943908829</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.97943908829</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866135</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866135</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865641</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912872</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913785</v>
+        <v>-7090.363160017961</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908832</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166496</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908829</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37876,7 +37876,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,10 +38113,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
